--- a/biology/Botanique/Maurice_Lepelletier/Maurice_Lepelletier.xlsx
+++ b/biology/Botanique/Maurice_Lepelletier/Maurice_Lepelletier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Maurice Lepelletier' est un cultivar de rosier obtenu en 1868 par les rosiéristes français Moreau et Robert[1].
+'Maurice Lepelletier' est un cultivar de rosier obtenu en 1868 par les rosiéristes français Moreau et Robert.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson au feuillage vert foncé, large et gaufré[2], pouvant atteindre de 100 cm à 120 cm de hauteur pour 80 cm de largeur[3]. Ses grandes fleurs en corymbes (17-25 pétales) parfumées sont de couleur bordeaux à vermillon[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson au feuillage vert foncé, large et gaufré, pouvant atteindre de 100 cm à 120 cm de hauteur pour 80 cm de largeur. Ses grandes fleurs en corymbes (17-25 pétales) parfumées sont de couleur bordeaux à vermillon,.
 Ses folioles allongées presque sans pointe sont au nombre de cinq. C'est une variété qui refleurit plutôt bien.
 Sa zone de rusticité est de 6b à 9b ; il supporte donc les hivers froids.
-On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses. Ses origines sont inconnues[2].
+On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses. Ses origines sont inconnues.
 </t>
         </is>
       </c>
